--- a/pred_ohlcv/54_21/2019-11-24 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1206164.65872322</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1248901.55862322</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1248680.08402322</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1336798.06092322</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1343529.87942322</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1739263.50222889</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1739263.50222889</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1728548.42712889</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1685505.38902889</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1685505.38902889</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1684840.28902889</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1684840.28902889</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1684848.28902889</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1684848.28902889</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1684848.28902889</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1684848.28902889</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1688935.77092889</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1684404.01452889</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1663144.45722889</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1663144.45722889</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1625295.09232889</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1608993.49972889</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1595174.85222889</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1592739.76342889</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1593435.20592889</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1593435.20592889</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1606554.56072889</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1595246.61822889</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1595246.61822889</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1628354.21572889</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1628362.21572889</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1630006.51692889</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1618680.13452889</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1759287.64062889</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1758847.96632889</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1758919.92792889</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1745021.41972889</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1757595.86842889</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1757595.86842889</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1753932.21002889</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1753932.21002889</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1745399.82452889</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1736003.44052889</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1774208.28142889</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1774208.28142889</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1774208.28142889</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1774216.28142889</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1770683.37682889</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1770683.37682889</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1635934.11752889</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1661176.47432889</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1677218.92642889</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1677218.92642889</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1677218.92642889</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1677425.81052889</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1624125.32432889</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1456835.490928889</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1536011.159902269</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1507315.647702269</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2019452.56700227</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2019452.56700227</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1974033.35610227</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1974033.35610227</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>2098145.26632227</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>2098145.26632227</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>2119447.85552227</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>2116886.85552227</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2101319.51732227</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>2095575.75092227</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>2105243.30232227</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>2117825.11682227</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>2231960.01122227</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2369076.61052227</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>2369276.61052227</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-24 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1206164.65872322</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1248901.55862322</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1248680.08402322</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1336798.06092322</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1625778.09222889</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1625295.09232889</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1595203.77122889</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1584168.17522889</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1555661.45802889</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1625279.99092889</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1622119.49022889</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1622169.49022889</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1596328.94422889</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1572248.30632889</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1572972.35562889</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1567901.49762889</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1592720.11412889</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1584720.11412889</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1606100.50322889</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1606183.78652889</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1592756.48012889</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1585158.579328889</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1464082.581028889</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1536011.159902269</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1507315.647702269</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>2048534.35430227</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2047864.95390227</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2047864.95390227</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>2047864.95390227</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>2046379.66490227</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>2027006.65520227</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2027006.65520227</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2027939.54100227</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2027947.54100227</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2019452.56700227</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2019452.56700227</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1974033.35610227</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1974033.35610227</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1967541.47120227</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1967262.53130227</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1981014.58330227</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>1981022.58330227</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>1974077.48280227</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>1967244.50900227</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>1945015.18880227</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>1988070.02980227</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>1981561.92860227</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>1981361.78220227</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>1981361.78220227</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>1981383.78220227</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>1973019.69570227</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1972917.38610227</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1918573.89580227</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2086540.96622227</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2086540.96622227</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2085218.53772227</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2058135.45652227</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2047451.70122227</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>2047451.70122227</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>2098145.26632227</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>2119447.85552227</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>2116886.85552227</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2101319.51732227</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2106055.15832227</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2091739.75092227</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>2095575.75092227</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>2105243.30232227</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>2117825.11682227</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>2231960.01122227</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2369076.61052227</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>2369276.61052227</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
